--- a/docs/assets/disciplinas/LOQ4261.xlsx
+++ b/docs/assets/disciplinas/LOQ4261.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar um quadro conceitual de análise para auxiliar na formulação, avaliação e desenvolvimento de modelos para Planejamento, Programação e Controle da Produção nos diferentes ambientes de produção.</t>
+    <t>5701460 - Antonio Iacono</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5701460 - Antonio Iacono</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Caracterização do planejamento e controle da produção. 2. Gestão e previsão de demanda. 3. Planejamento agregado da produção. 4. Planejamento mestre da produção. 5. Planejamento e controle de estoques. 6. Planejamento de recursos de materiais (MRP). 7. Programação detalhada da produção. 8. Just In Time (JIT) e operações enxutas. 9. Sistema MRPII e Sistema ERP; 10. Teoria das Restrições (TOC). 11. Sistemas de controle da produção.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -109,25 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas teóricas, aulas práticas, aulas de exercícios. MANTIDO</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>M = (0,8P + 0,2T)P = média aritmética de duas provas escritasT = Média das notas de trabalhos e exercíciosM = Média de aproveitamento do alunoAprovação com média de aproveitamento maior ou igual a 5,0 e no mínimo 70% de frequência às aulas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>MF = (0,5 M + 0,5 R)M = Média de aproveitamento do aluno, antes da recuperaçãoR = Nota de uma prova de recuperaçãoMF = nota final de aproveitamento, após a recuperaçãoAprovação com média final de aproveitamento maior ou igual a 5,0.A recuperação deverá consistir de uma prova escrita englobando a matéria toda do semestre.Terá direito à prova de recuperação aqueles alunos reprovados com nota acima de 3,0 e frequência mínima de 70%.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1.CORRÊA, H. L.; GIANESI, I. G. N.; CAON, M. Planejamento, programação e controle da produção: MRPII/ERP conceitos, uso e implantação. 5. ed. São Paulo: Atlas, 2007. 2.CORRÊA, H. L.; CORRÊA, C. A. Administração da Produção e Operações: manufatura e serviços: uma abordagem estratégica. 2.ed. São Paulo: Atlas, 2011. 3.DAVIS, M.M. et al. Fundamentos da administração da Produção. Porto Alegre: Bookman, 2018. 4.FERNANDES, F.C.F.; GODINHO FILHO. Planejamento e controle da produção: dos fundamentos ao essencial. São Paulo: Atlas, 2010. 5.GAITHER, N.; FRAZIER, G. Administração da Produção e Operações. 8. ed. São Paulo: Pioneira Thomson, 2005. 6.GONÇALVES, P.S. Administração de materiais. Rio de Janeiro: Elsevier, 2013. 7.HEIZER, J.; RENDER, B. Administração de Operações: bens e serviços. 5. ed. Rio de Janeiro: LTC, 2001.8.JACOBS, F.R.; CHASE, R. B. Administração da produção e de operações: o essencial. Porto Alegre: Bookman, 2009. 9.LUSTOSA, L. et. Al. Planejamento e controle da produção. Rio de Janeiro: Elsevier, 2008. 10.MOREIRA, D. A. Administração da Produção e Operações. 2. ed. São Paulo: Cengage Learning, 2008.11.REID, R.D.; SANDERS, N. R. Gestão de operações. Rio de Janeiro: LTC, 2005. 12.SLACK, N., BRANDON-JONES, A., JOHNSTON, R. Administração da produção. Henrique Luiz Corrêa (Trad.). 3. ed. São Paulo: Atlas, 2018. 13.TUBINO, D.V. Planejamento e controle da produção: teoria e prática. 2.ed. São Paulo: Atlas, 2009. 14.VOLLMANN, T.; BERRY, W.; WHYBARK, D.; JACOBS, F. Sistemas de planejamento e controle da produção: para o gerenciamento da cadeia de suprimentos. 5. ed. Porto Alegre: Bookman, 2006. 15.WANKE, P.F. Gerência de operações: uma abordagem logística. São Paulo: Atlas, 2010.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,34 +615,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -656,26 +653,26 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -700,7 +697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -711,28 +708,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4261.xlsx
+++ b/docs/assets/disciplinas/LOQ4261.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar um quadro conceitual de análise para auxiliar na formulação, avaliação e desenvolvimento de modelos para Planejamento, Programação e Controle da Produção nos diferentes ambientes de produção.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To present a conceptual framework of analysis to assist in the formulation, evaluation and development of models for Planning, Programming and Production Control in different production environments.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5701460 - Antonio Iacono</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To present a conceptual framework of analysis to assist in the formulation, evaluation and development of models for Planning, Programming and Production Control in different production environments.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1. Caracterização do planejamento e controle da produção. 2. Gestão e previsão de demanda. 3. Planejamento agregado da produção. 4. Planejamento mestre da produção. 5. Planejamento e controle de estoques. 6. Planejamento de recursos de materiais (MRP). 7. Programação detalhada da produção. 8. Just In Time (JIT) e operações enxutas. 9. Sistema MRPII e Sistema ERP; 10. Teoria das Restrições (TOC). 11. Sistemas de controle da produção.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -106,22 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas teóricas, aulas práticas, aulas de exercícios. MANTIDO</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas teóricas, aulas práticas, aulas de exercícios. MANTIDO</t>
+    <t>M = (0,8P + 0,2T)P = média aritmética de duas provas escritasT = Média das notas de trabalhos e exercíciosM = Média de aproveitamento do alunoAprovação com média de aproveitamento maior ou igual a 5,0 e no mínimo 70% de frequência às aulas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>M = (0,8P + 0,2T)P = média aritmética de duas provas escritasT = Média das notas de trabalhos e exercíciosM = Média de aproveitamento do alunoAprovação com média de aproveitamento maior ou igual a 5,0 e no mínimo 70% de frequência às aulas.</t>
+    <t>MF = (0,5 M + 0,5 R)M = Média de aproveitamento do aluno, antes da recuperaçãoR = Nota de uma prova de recuperaçãoMF = nota final de aproveitamento, após a recuperaçãoAprovação com média final de aproveitamento maior ou igual a 5,0.A recuperação deverá consistir de uma prova escrita englobando a matéria toda do semestre.Terá direito à prova de recuperação aqueles alunos reprovados com nota acima de 3,0 e frequência mínima de 70%.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>MF = (0,5 M + 0,5 R)M = Média de aproveitamento do aluno, antes da recuperaçãoR = Nota de uma prova de recuperaçãoMF = nota final de aproveitamento, após a recuperaçãoAprovação com média final de aproveitamento maior ou igual a 5,0.A recuperação deverá consistir de uma prova escrita englobando a matéria toda do semestre.Terá direito à prova de recuperação aqueles alunos reprovados com nota acima de 3,0 e frequência mínima de 70%.</t>
+    <t>1.CORRÊA, H. L.; GIANESI, I. G. N.; CAON, M. Planejamento, programação e controle da produção: MRPII/ERP conceitos, uso e implantação. 5. ed. São Paulo: Atlas, 2007. 2.CORRÊA, H. L.; CORRÊA, C. A. Administração da Produção e Operações: manufatura e serviços: uma abordagem estratégica. 2.ed. São Paulo: Atlas, 2011. 3.DAVIS, M.M. et al. Fundamentos da administração da Produção. Porto Alegre: Bookman, 2018. 4.FERNANDES, F.C.F.; GODINHO FILHO. Planejamento e controle da produção: dos fundamentos ao essencial. São Paulo: Atlas, 2010. 5.GAITHER, N.; FRAZIER, G. Administração da Produção e Operações. 8. ed. São Paulo: Pioneira Thomson, 2005. 6.GONÇALVES, P.S. Administração de materiais. Rio de Janeiro: Elsevier, 2013. 7.HEIZER, J.; RENDER, B. Administração de Operações: bens e serviços. 5. ed. Rio de Janeiro: LTC, 2001.8.JACOBS, F.R.; CHASE, R. B. Administração da produção e de operações: o essencial. Porto Alegre: Bookman, 2009. 9.LUSTOSA, L. et. Al. Planejamento e controle da produção. Rio de Janeiro: Elsevier, 2008. 10.MOREIRA, D. A. Administração da Produção e Operações. 2. ed. São Paulo: Cengage Learning, 2008.11.REID, R.D.; SANDERS, N. R. Gestão de operações. Rio de Janeiro: LTC, 2005. 12.SLACK, N., BRANDON-JONES, A., JOHNSTON, R. Administração da produção. Henrique Luiz Corrêa (Trad.). 3. ed. São Paulo: Atlas, 2018. 13.TUBINO, D.V. Planejamento e controle da produção: teoria e prática. 2.ed. São Paulo: Atlas, 2009. 14.VOLLMANN, T.; BERRY, W.; WHYBARK, D.; JACOBS, F. Sistemas de planejamento e controle da produção: para o gerenciamento da cadeia de suprimentos. 5. ed. Porto Alegre: Bookman, 2006. 15.WANKE, P.F. Gerência de operações: uma abordagem logística. São Paulo: Atlas, 2010.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -615,37 +621,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -653,26 +656,26 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -697,7 +700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -708,17 +711,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
